--- a/projetS5/public/INFO/2018-2019/ADMIN/LISTES/INFO_2018-2019_ADMIN_LISTES_S3.xlsx
+++ b/projetS5/public/INFO/2018-2019/ADMIN/LISTES/INFO_2018-2019_ADMIN_LISTES_S3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdcde\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdcde\Music\PROJET S5 LPDIOC GESTION ETUDIANT\GestionEtudiants2018\projetS5\public\INFO\2018-2019\ADMIN\LISTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6371D993-9DBD-48C2-B62E-59807AA92BEB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D4AA28-D7EE-42ED-B257-FE7290DF117D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{B8C28436-09AF-4DF1-8BB7-62D1DDCC6DAF}"/>
   </bookViews>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A245600-A942-4A9C-BA06-5CDF207C8B57}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection sqref="A1:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,7 +898,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>20150926</v>
+        <v>20170926</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>20150927</v>
+        <v>20170927</v>
       </c>
       <c r="B4" t="s">
         <v>100</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>20150928</v>
+        <v>20170928</v>
       </c>
       <c r="B5" t="s">
         <v>101</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>20150929</v>
+        <v>20170929</v>
       </c>
       <c r="B6" t="s">
         <v>102</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>20150930</v>
+        <v>20170930</v>
       </c>
       <c r="B7" t="s">
         <v>103</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>20150931</v>
+        <v>20170931</v>
       </c>
       <c r="B8" t="s">
         <v>104</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>20150932</v>
+        <v>20170932</v>
       </c>
       <c r="B9" t="s">
         <v>105</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>20150933</v>
+        <v>20170933</v>
       </c>
       <c r="B10" t="s">
         <v>106</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>20150934</v>
+        <v>20170934</v>
       </c>
       <c r="B11" t="s">
         <v>107</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>20150935</v>
+        <v>20170935</v>
       </c>
       <c r="B12" t="s">
         <v>108</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>20150936</v>
+        <v>20170936</v>
       </c>
       <c r="B13" t="s">
         <v>109</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>20150937</v>
+        <v>20170937</v>
       </c>
       <c r="B14" t="s">
         <v>110</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>20150938</v>
+        <v>20170938</v>
       </c>
       <c r="B15" t="s">
         <v>111</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>20150939</v>
+        <v>20170939</v>
       </c>
       <c r="B16" t="s">
         <v>112</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>20150940</v>
+        <v>20170940</v>
       </c>
       <c r="B17" t="s">
         <v>113</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>20150941</v>
+        <v>20170941</v>
       </c>
       <c r="B18" t="s">
         <v>114</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>20150942</v>
+        <v>20170942</v>
       </c>
       <c r="B19" t="s">
         <v>115</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20150943</v>
+        <v>20170943</v>
       </c>
       <c r="B20" t="s">
         <v>116</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20150944</v>
+        <v>20170944</v>
       </c>
       <c r="B21" t="s">
         <v>117</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20150945</v>
+        <v>20170945</v>
       </c>
       <c r="B22" t="s">
         <v>118</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>20150946</v>
+        <v>20170946</v>
       </c>
       <c r="B23" t="s">
         <v>119</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>20150947</v>
+        <v>20170947</v>
       </c>
       <c r="B24" t="s">
         <v>120</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>20150948</v>
+        <v>20170948</v>
       </c>
       <c r="B25" t="s">
         <v>121</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>20150949</v>
+        <v>20170949</v>
       </c>
       <c r="B26" t="s">
         <v>122</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>20150950</v>
+        <v>20170950</v>
       </c>
       <c r="B27" t="s">
         <v>123</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>20150951</v>
+        <v>20170951</v>
       </c>
       <c r="B28" t="s">
         <v>124</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>20150952</v>
+        <v>20170952</v>
       </c>
       <c r="B29" t="s">
         <v>125</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>20150953</v>
+        <v>20170953</v>
       </c>
       <c r="B30" t="s">
         <v>126</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>20150954</v>
+        <v>20170954</v>
       </c>
       <c r="B31" t="s">
         <v>126</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>20150955</v>
+        <v>20170955</v>
       </c>
       <c r="B32" t="s">
         <v>127</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>20150956</v>
+        <v>20170956</v>
       </c>
       <c r="B33" t="s">
         <v>128</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>20150957</v>
+        <v>20170957</v>
       </c>
       <c r="B34" t="s">
         <v>129</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>20150958</v>
+        <v>20170958</v>
       </c>
       <c r="B35" t="s">
         <v>130</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>20150959</v>
+        <v>20170959</v>
       </c>
       <c r="B36" t="s">
         <v>131</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>20150960</v>
+        <v>20170960</v>
       </c>
       <c r="B37" t="s">
         <v>132</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>20150961</v>
+        <v>20170961</v>
       </c>
       <c r="B38" t="s">
         <v>133</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>20150962</v>
+        <v>20170962</v>
       </c>
       <c r="B39" t="s">
         <v>134</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>20150963</v>
+        <v>20170963</v>
       </c>
       <c r="B40" t="s">
         <v>135</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>20150964</v>
+        <v>20170964</v>
       </c>
       <c r="B41" t="s">
         <v>136</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>20150965</v>
+        <v>20170965</v>
       </c>
       <c r="B42" t="s">
         <v>137</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>20150966</v>
+        <v>20170966</v>
       </c>
       <c r="B43" t="s">
         <v>138</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>20150967</v>
+        <v>20170967</v>
       </c>
       <c r="B44" t="s">
         <v>139</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>20150968</v>
+        <v>20170968</v>
       </c>
       <c r="B45" t="s">
         <v>140</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>20150969</v>
+        <v>20170969</v>
       </c>
       <c r="B46" t="s">
         <v>141</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>20150970</v>
+        <v>20170970</v>
       </c>
       <c r="B47" t="s">
         <v>142</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>20150971</v>
+        <v>20170971</v>
       </c>
       <c r="B48" t="s">
         <v>143</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>20150972</v>
+        <v>20170972</v>
       </c>
       <c r="B49" t="s">
         <v>144</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>20150973</v>
+        <v>20170973</v>
       </c>
       <c r="B50" t="s">
         <v>145</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>20150974</v>
+        <v>20170974</v>
       </c>
       <c r="B51" t="s">
         <v>146</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>20150975</v>
+        <v>20170975</v>
       </c>
       <c r="B52" t="s">
         <v>147</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>20150976</v>
+        <v>20170976</v>
       </c>
       <c r="B53" t="s">
         <v>148</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>20150977</v>
+        <v>20170977</v>
       </c>
       <c r="B54" t="s">
         <v>149</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>20150978</v>
+        <v>20170978</v>
       </c>
       <c r="B55" t="s">
         <v>150</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>20150979</v>
+        <v>20170979</v>
       </c>
       <c r="B56" t="s">
         <v>151</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>20150980</v>
+        <v>20170980</v>
       </c>
       <c r="B57" t="s">
         <v>152</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>20150981</v>
+        <v>20170981</v>
       </c>
       <c r="B58" t="s">
         <v>153</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>20150982</v>
+        <v>20170982</v>
       </c>
       <c r="B59" t="s">
         <v>154</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>20150983</v>
+        <v>20170983</v>
       </c>
       <c r="B60" t="s">
         <v>155</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>20150984</v>
+        <v>20170984</v>
       </c>
       <c r="B61" t="s">
         <v>156</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>20150985</v>
+        <v>20170985</v>
       </c>
       <c r="B62" t="s">
         <v>157</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>20150986</v>
+        <v>20170986</v>
       </c>
       <c r="B63" t="s">
         <v>158</v>

--- a/projetS5/public/INFO/2018-2019/ADMIN/LISTES/INFO_2018-2019_ADMIN_LISTES_S3.xlsx
+++ b/projetS5/public/INFO/2018-2019/ADMIN/LISTES/INFO_2018-2019_ADMIN_LISTES_S3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdcde\Music\PROJET S5 LPDIOC GESTION ETUDIANT\GestionEtudiants2018\projetS5\public\INFO\2018-2019\ADMIN\LISTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D4AA28-D7EE-42ED-B257-FE7290DF117D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E919ED6D-2462-4CE5-9876-3F30E0F55F8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{B8C28436-09AF-4DF1-8BB7-62D1DDCC6DAF}"/>
   </bookViews>
@@ -315,193 +315,193 @@
     <t>Semestre Actuel</t>
   </si>
   <si>
+    <t>Numéro</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>BAUDELET</t>
+  </si>
+  <si>
+    <t>BIGARD</t>
+  </si>
+  <si>
+    <t>BISSON</t>
+  </si>
+  <si>
+    <t>BONTE</t>
+  </si>
+  <si>
+    <t>BOULNOIS</t>
+  </si>
+  <si>
+    <t>CHATELET</t>
+  </si>
+  <si>
+    <t>CLEROT</t>
+  </si>
+  <si>
+    <t>CORNU</t>
+  </si>
+  <si>
+    <t>DACHY</t>
+  </si>
+  <si>
+    <t>DANGLETERRE</t>
+  </si>
+  <si>
+    <t>DEBACKER</t>
+  </si>
+  <si>
+    <t>DELBREUVE</t>
+  </si>
+  <si>
+    <t>DEROSNE</t>
+  </si>
+  <si>
+    <t>DUHAUT</t>
+  </si>
+  <si>
+    <t>DUMETZ</t>
+  </si>
+  <si>
+    <t>FEVRIER</t>
+  </si>
+  <si>
+    <t>FORGET</t>
+  </si>
+  <si>
+    <t>FROISSART</t>
+  </si>
+  <si>
+    <t>FRUY</t>
+  </si>
+  <si>
+    <t>GEERAERT</t>
+  </si>
+  <si>
+    <t>GREMBER</t>
+  </si>
+  <si>
+    <t>HENNAUT</t>
+  </si>
+  <si>
+    <t>KURZAWSKI</t>
+  </si>
+  <si>
+    <t>LAMBERSENS</t>
+  </si>
+  <si>
+    <t>LE FOLL</t>
+  </si>
+  <si>
+    <t>LECHA</t>
+  </si>
+  <si>
+    <t>LEFAIT</t>
+  </si>
+  <si>
+    <t>LEFEBVRE</t>
+  </si>
+  <si>
+    <t>LEGRAND</t>
+  </si>
+  <si>
+    <t>LEGRU</t>
+  </si>
+  <si>
+    <t>LEMAITRE</t>
+  </si>
+  <si>
+    <t>LESAFFRE</t>
+  </si>
+  <si>
+    <t>LETERTRE</t>
+  </si>
+  <si>
+    <t>LONGOUR</t>
+  </si>
+  <si>
+    <t>LOOPE</t>
+  </si>
+  <si>
+    <t>MAERTEN</t>
+  </si>
+  <si>
+    <t>MAILLOT</t>
+  </si>
+  <si>
+    <t>MARIE</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>MASSELOT</t>
+  </si>
+  <si>
+    <t>MERLIN</t>
+  </si>
+  <si>
+    <t>PETIT</t>
+  </si>
+  <si>
+    <t>POLAN</t>
+  </si>
+  <si>
+    <t>POUILLY</t>
+  </si>
+  <si>
+    <t>ROLAND</t>
+  </si>
+  <si>
+    <t>ROTTIERS</t>
+  </si>
+  <si>
+    <t>SACRE</t>
+  </si>
+  <si>
+    <t>SCHILLER</t>
+  </si>
+  <si>
+    <t>SURET</t>
+  </si>
+  <si>
+    <t>SZKARADEK</t>
+  </si>
+  <si>
+    <t>SZYMURA</t>
+  </si>
+  <si>
+    <t>TANG</t>
+  </si>
+  <si>
+    <t>TASSART</t>
+  </si>
+  <si>
+    <t>THERAGE</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>VANDEWOORDE</t>
+  </si>
+  <si>
+    <t>VANROY</t>
+  </si>
+  <si>
+    <t>VELLA</t>
+  </si>
+  <si>
+    <t>VERPOEST</t>
+  </si>
+  <si>
+    <t>WICART</t>
+  </si>
+  <si>
     <t>S3</t>
-  </si>
-  <si>
-    <t>Numéro</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>BAUDELET</t>
-  </si>
-  <si>
-    <t>BIGARD</t>
-  </si>
-  <si>
-    <t>BISSON</t>
-  </si>
-  <si>
-    <t>BONTE</t>
-  </si>
-  <si>
-    <t>BOULNOIS</t>
-  </si>
-  <si>
-    <t>CHATELET</t>
-  </si>
-  <si>
-    <t>CLEROT</t>
-  </si>
-  <si>
-    <t>CORNU</t>
-  </si>
-  <si>
-    <t>DACHY</t>
-  </si>
-  <si>
-    <t>DANGLETERRE</t>
-  </si>
-  <si>
-    <t>DEBACKER</t>
-  </si>
-  <si>
-    <t>DELBREUVE</t>
-  </si>
-  <si>
-    <t>DEROSNE</t>
-  </si>
-  <si>
-    <t>DUHAUT</t>
-  </si>
-  <si>
-    <t>DUMETZ</t>
-  </si>
-  <si>
-    <t>FEVRIER</t>
-  </si>
-  <si>
-    <t>FORGET</t>
-  </si>
-  <si>
-    <t>FROISSART</t>
-  </si>
-  <si>
-    <t>FRUY</t>
-  </si>
-  <si>
-    <t>GEERAERT</t>
-  </si>
-  <si>
-    <t>GREMBER</t>
-  </si>
-  <si>
-    <t>HENNAUT</t>
-  </si>
-  <si>
-    <t>KURZAWSKI</t>
-  </si>
-  <si>
-    <t>LAMBERSENS</t>
-  </si>
-  <si>
-    <t>LE FOLL</t>
-  </si>
-  <si>
-    <t>LECHA</t>
-  </si>
-  <si>
-    <t>LEFAIT</t>
-  </si>
-  <si>
-    <t>LEFEBVRE</t>
-  </si>
-  <si>
-    <t>LEGRAND</t>
-  </si>
-  <si>
-    <t>LEGRU</t>
-  </si>
-  <si>
-    <t>LEMAITRE</t>
-  </si>
-  <si>
-    <t>LESAFFRE</t>
-  </si>
-  <si>
-    <t>LETERTRE</t>
-  </si>
-  <si>
-    <t>LONGOUR</t>
-  </si>
-  <si>
-    <t>LOOPE</t>
-  </si>
-  <si>
-    <t>MAERTEN</t>
-  </si>
-  <si>
-    <t>MAILLOT</t>
-  </si>
-  <si>
-    <t>MARIE</t>
-  </si>
-  <si>
-    <t>MARTIN</t>
-  </si>
-  <si>
-    <t>MASSELOT</t>
-  </si>
-  <si>
-    <t>MERLIN</t>
-  </si>
-  <si>
-    <t>PETIT</t>
-  </si>
-  <si>
-    <t>POLAN</t>
-  </si>
-  <si>
-    <t>POUILLY</t>
-  </si>
-  <si>
-    <t>ROLAND</t>
-  </si>
-  <si>
-    <t>ROTTIERS</t>
-  </si>
-  <si>
-    <t>SACRE</t>
-  </si>
-  <si>
-    <t>SCHILLER</t>
-  </si>
-  <si>
-    <t>SURET</t>
-  </si>
-  <si>
-    <t>SZKARADEK</t>
-  </si>
-  <si>
-    <t>SZYMURA</t>
-  </si>
-  <si>
-    <t>TANG</t>
-  </si>
-  <si>
-    <t>TASSART</t>
-  </si>
-  <si>
-    <t>THERAGE</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>VANDEWOORDE</t>
-  </si>
-  <si>
-    <t>VANROY</t>
-  </si>
-  <si>
-    <t>VELLA</t>
-  </si>
-  <si>
-    <t>VERPOEST</t>
-  </si>
-  <si>
-    <t>WICART</t>
   </si>
 </sst>
 </file>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A245600-A942-4A9C-BA06-5CDF207C8B57}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection sqref="A1:C63"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,10 +869,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" t="s">
-        <v>98</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -898,10 +898,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>20170926</v>
+        <v>20150926</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -922,15 +922,15 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>20170927</v>
+        <v>20150927</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -951,15 +951,15 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>20170928</v>
+        <v>20150928</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -980,15 +980,15 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>20170929</v>
+        <v>20150929</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1009,15 +1009,15 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>20170930</v>
+        <v>20150930</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -1038,15 +1038,15 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>20170931</v>
+        <v>20150931</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -1067,15 +1067,15 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>20170932</v>
+        <v>20150932</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -1096,15 +1096,15 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>20170933</v>
+        <v>20150933</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -1125,15 +1125,15 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>20170934</v>
+        <v>20150934</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1154,15 +1154,15 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>20170935</v>
+        <v>20150935</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -1183,15 +1183,15 @@
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>20170936</v>
+        <v>20150936</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -1212,15 +1212,15 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>20170937</v>
+        <v>20150937</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -1241,15 +1241,15 @@
         <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>20170938</v>
+        <v>20150938</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -1270,15 +1270,15 @@
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>20170939</v>
+        <v>20150939</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -1299,15 +1299,15 @@
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>20170940</v>
+        <v>20150940</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -1328,15 +1328,15 @@
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>20170941</v>
+        <v>20150941</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -1357,15 +1357,15 @@
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>20170942</v>
+        <v>20150942</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
@@ -1386,15 +1386,15 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20170943</v>
+        <v>20150943</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -1415,15 +1415,15 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20170944</v>
+        <v>20150944</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
         <v>46</v>
@@ -1444,15 +1444,15 @@
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20170945</v>
+        <v>20150945</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
         <v>48</v>
@@ -1473,15 +1473,15 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>20170946</v>
+        <v>20150946</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -1502,15 +1502,15 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>20170947</v>
+        <v>20150947</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
@@ -1531,15 +1531,15 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>20170948</v>
+        <v>20150948</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
         <v>52</v>
@@ -1560,15 +1560,15 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>20170949</v>
+        <v>20150949</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
@@ -1589,15 +1589,15 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>20170950</v>
+        <v>20150950</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
         <v>56</v>
@@ -1618,15 +1618,15 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>20170951</v>
+        <v>20150951</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
@@ -1647,15 +1647,15 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>20170952</v>
+        <v>20150952</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
         <v>58</v>
@@ -1676,15 +1676,15 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>20170953</v>
+        <v>20150953</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
         <v>60</v>
@@ -1705,15 +1705,15 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>20170954</v>
+        <v>20150954</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
         <v>42</v>
@@ -1734,15 +1734,15 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>20170955</v>
+        <v>20150955</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
         <v>61</v>
@@ -1763,15 +1763,15 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>20170956</v>
+        <v>20150956</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
         <v>62</v>
@@ -1792,15 +1792,15 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>20170957</v>
+        <v>20150957</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
@@ -1821,15 +1821,15 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>20170958</v>
+        <v>20150958</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
         <v>58</v>
@@ -1850,15 +1850,15 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>20170959</v>
+        <v>20150959</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
         <v>66</v>
@@ -1879,15 +1879,15 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>20170960</v>
+        <v>20150960</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -1908,15 +1908,15 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>20170961</v>
+        <v>20150961</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
         <v>69</v>
@@ -1937,15 +1937,15 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>20170962</v>
+        <v>20150962</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
@@ -1966,15 +1966,15 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>20170963</v>
+        <v>20150963</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
         <v>71</v>
@@ -1995,15 +1995,15 @@
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>20170964</v>
+        <v>20150964</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
@@ -2024,15 +2024,15 @@
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>20170965</v>
+        <v>20150965</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
         <v>73</v>
@@ -2053,15 +2053,15 @@
         <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>20170966</v>
+        <v>20150966</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
@@ -2082,15 +2082,15 @@
         <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>20170967</v>
+        <v>20150967</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
         <v>75</v>
@@ -2111,15 +2111,15 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>20170968</v>
+        <v>20150968</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
         <v>76</v>
@@ -2140,15 +2140,15 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>20170969</v>
+        <v>20150969</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -2169,15 +2169,15 @@
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>20170970</v>
+        <v>20150970</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
         <v>77</v>
@@ -2198,15 +2198,15 @@
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>20170971</v>
+        <v>20150971</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
         <v>78</v>
@@ -2227,15 +2227,15 @@
         <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>20170972</v>
+        <v>20150972</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
         <v>79</v>
@@ -2256,15 +2256,15 @@
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>20170973</v>
+        <v>20150973</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
@@ -2285,15 +2285,15 @@
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>20170974</v>
+        <v>20150974</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C51" t="s">
         <v>81</v>
@@ -2314,15 +2314,15 @@
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>20170975</v>
+        <v>20150975</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
         <v>42</v>
@@ -2343,15 +2343,15 @@
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>20170976</v>
+        <v>20150976</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
         <v>82</v>
@@ -2372,15 +2372,15 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>20170977</v>
+        <v>20150977</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
         <v>73</v>
@@ -2401,15 +2401,15 @@
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>20170978</v>
+        <v>20150978</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
         <v>84</v>
@@ -2430,15 +2430,15 @@
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>20170979</v>
+        <v>20150979</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
         <v>73</v>
@@ -2459,15 +2459,15 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>20170980</v>
+        <v>20150980</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C57" t="s">
         <v>86</v>
@@ -2488,15 +2488,15 @@
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>20170981</v>
+        <v>20150981</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
@@ -2517,15 +2517,15 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>20170982</v>
+        <v>20150982</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
         <v>88</v>
@@ -2546,15 +2546,15 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>20170983</v>
+        <v>20150983</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -2575,15 +2575,15 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>20170984</v>
+        <v>20150984</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
         <v>91</v>
@@ -2604,15 +2604,15 @@
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>20170985</v>
+        <v>20150985</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C62" t="s">
         <v>92</v>
@@ -2633,15 +2633,15 @@
         <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>20170986</v>
+        <v>20150986</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C63" t="s">
         <v>93</v>
@@ -2662,7 +2662,7 @@
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
